--- a/術語整理20251104.xlsx
+++ b/術語整理20251104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unuse\glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA642F6B-870E-4BDD-8B97-569D884336C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EDF1D-D199-4380-92AE-C66FA29AE73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D64344F-4342-42E1-B147-B35371BC4BAE}"/>
   </bookViews>
@@ -1375,10 +1375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">contact icing  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1396,10 +1392,6 @@
   </si>
   <si>
     <t>溫湯處理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hot water dip </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2245,6 +2237,14 @@
   </si>
   <si>
     <t>是普通貯藏的一種方式,以建於地上或一半地下的普通通風貯藏庫來進行貯藏.庫房的構造型式並不一定,但基本上應具有隔熱與通風二項特性,當外界溫度較低時,打開通風口引入低溫空氣,當外界溫度較高時,關閉通風口以維持低溫環境,達到貯藏之目的.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact icing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot water dip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2701,8 +2701,8 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2777,13 +2777,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2791,7 +2791,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2799,13 +2799,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2813,7 +2813,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2855,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2863,7 +2863,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2930,7 +2930,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -3014,7 +3014,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
@@ -3042,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -3095,7 +3095,7 @@
         <v>293</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>60</v>
@@ -3153,7 +3153,7 @@
         <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>69</v>
@@ -3179,13 +3179,13 @@
         <v>387</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3193,7 +3193,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3204,7 +3204,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>73</v>
@@ -3324,7 +3324,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>99</v>
@@ -3352,10 +3352,10 @@
         <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3363,7 +3363,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3445,7 +3445,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
         <v>118</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3493,7 +3493,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
         <v>133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3601,7 +3601,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
         <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>151</v>
@@ -3733,7 +3733,7 @@
         <v>156</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3741,7 +3741,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3891,7 +3891,7 @@
         <v>1203</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>188</v>
@@ -3953,7 +3953,7 @@
         <v>193</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3961,7 +3961,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3975,7 +3975,7 @@
         <v>193</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3983,7 +3983,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>208</v>
@@ -4080,10 +4080,10 @@
         <v>206</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -4104,10 +4104,10 @@
         <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4115,7 +4115,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4126,10 +4126,10 @@
         <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4137,7 +4137,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4263,7 +4263,7 @@
         <v>223</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -4271,7 +4271,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
       <c r="J58" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -4346,10 +4346,10 @@
         <v>240</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
@@ -4373,13 +4373,13 @@
         <v>1497</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
@@ -4409,7 +4409,7 @@
         <v>248</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -4609,7 +4609,7 @@
         <v>276</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4617,7 +4617,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4631,7 +4631,7 @@
         <v>281</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>282</v>
@@ -4685,7 +4685,7 @@
         <v>285</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -4693,7 +4693,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4707,7 +4707,7 @@
         <v>289</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -4919,7 +4919,7 @@
         <v>322</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -4927,7 +4927,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4938,7 +4938,7 @@
         <v>327</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>328</v>
@@ -4991,7 +4991,7 @@
         <v>2103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>335</v>
@@ -5019,13 +5019,13 @@
         <v>2103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5033,7 +5033,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -5107,7 +5107,7 @@
         <v>346</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -5115,7 +5115,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -5159,7 +5159,7 @@
         <v>351</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -5167,7 +5167,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -5178,7 +5178,7 @@
         <v>355</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>356</v>
@@ -5206,10 +5206,10 @@
         <v>355</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5217,7 +5217,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>358</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>360</v>
@@ -5258,16 +5258,16 @@
         <v>363</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>225</v>
@@ -5279,7 +5279,7 @@
         <v>101</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -5287,13 +5287,13 @@
         <v>2255</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -5301,13 +5301,13 @@
         <v>254</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,14 +5318,14 @@
         <v>225</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>254</v>
@@ -5337,7 +5337,7 @@
         <v>101</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -5345,22 +5345,22 @@
         <v>2260</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>137</v>
@@ -5369,7 +5369,7 @@
         <v>101</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -5377,16 +5377,16 @@
         <v>2270</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
@@ -5399,7 +5399,7 @@
         <v>101</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -5407,13 +5407,13 @@
         <v>2025102901</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5425,7 +5425,7 @@
         <v>205</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -5433,20 +5433,20 @@
         <v>2316</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>130</v>
@@ -5455,7 +5455,7 @@
         <v>101</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -5463,20 +5463,20 @@
         <v>2343</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>153</v>
@@ -5485,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -5493,19 +5493,19 @@
         <v>2353</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
@@ -5515,7 +5515,7 @@
         <v>101</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -5523,16 +5523,16 @@
         <v>2355</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
@@ -5545,7 +5545,7 @@
         <v>101</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -5553,18 +5553,18 @@
         <v>2361</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>338</v>
@@ -5573,7 +5573,7 @@
         <v>101</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -5581,22 +5581,22 @@
         <v>2473</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>91</v>
@@ -5605,7 +5605,7 @@
         <v>101</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -5613,13 +5613,13 @@
         <v>2529</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -5633,7 +5633,7 @@
         <v>101</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -5641,16 +5641,16 @@
         <v>2540</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
@@ -5663,7 +5663,7 @@
         <v>101</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -5671,17 +5671,17 @@
         <v>2563</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
@@ -5691,7 +5691,7 @@
         <v>101</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -5699,13 +5699,13 @@
         <v>2581</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -5719,7 +5719,7 @@
         <v>101</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -5727,17 +5727,17 @@
         <v>2711</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>107</v>
@@ -5749,7 +5749,7 @@
         <v>101</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -5757,13 +5757,13 @@
         <v>2725</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5777,7 +5777,7 @@
         <v>101</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -5785,16 +5785,16 @@
         <v>2790</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="3" t="s">
@@ -5807,7 +5807,7 @@
         <v>101</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -5815,22 +5815,22 @@
         <v>2956</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F113" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>108</v>
@@ -5839,7 +5839,7 @@
         <v>101</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -5847,17 +5847,17 @@
         <v>2913</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
@@ -5867,7 +5867,7 @@
         <v>101</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -5875,17 +5875,17 @@
         <v>2917</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>242</v>
@@ -5897,7 +5897,7 @@
         <v>101</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -5905,18 +5905,18 @@
         <v>2920</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>137</v>
@@ -5925,7 +5925,7 @@
         <v>101</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -5933,22 +5933,22 @@
         <v>2921</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>137</v>
@@ -5957,7 +5957,7 @@
         <v>101</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5968,10 +5968,10 @@
         <v>225</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -5983,7 +5983,7 @@
         <v>205</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,13 +5991,13 @@
         <v>2025102903</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -6009,7 +6009,7 @@
         <v>205</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6017,13 +6017,13 @@
         <v>2025102904</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -6035,7 +6035,7 @@
         <v>205</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -6043,13 +6043,13 @@
         <v>2025102905</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -6061,7 +6061,7 @@
         <v>205</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,13 +6069,13 @@
         <v>2025102906</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -6087,7 +6087,7 @@
         <v>205</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/術語整理20251104.xlsx
+++ b/術語整理20251104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unuse\glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EDF1D-D199-4380-92AE-C66FA29AE73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFBCC4-8552-4C40-B28D-DAB9D1369834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D64344F-4342-42E1-B147-B35371BC4BAE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="592">
   <si>
     <t>作者</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -803,10 +803,6 @@
   </si>
   <si>
     <t>整修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	園產品在採收之後、進行分等或包裝之前,將不必要的外葉、莖部或根部除去的動作.修整可使產品的外觀看起來整齊美觀,也可減少污染.通常是對蔬菜類、花卉類產品所做的工作.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2075,22 +2071,6 @@
   </si>
   <si>
     <t>α-amino isobutyric acid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Packaging in which the atmosphere surrounding the fish is different from the normal composition of air.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code of practice for fish and fishery products, Codex Alimentarius, FAO, 2003 (http://www.fao.org/3/a1553e/a1553e00.pdf). https://www.fao.org/faoterm/en/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replacing the air in a pack of fish with a different mixture of gases, typically some combination of carbon dioxide, nitrogen and oxygen. The proportion of each component gas is fixed when the mixture is introduced, but no further control is exercised during storage, and the composition of the mixture may slowly change. Modified atmosphere packing is often incorrectly called controlled atmosphere packing, CAP.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Packing Fish in a Modified Atmosphere, FAO in partnership with the Support Unit for International Fisheries and Aquatic Research, SIFAR, 2001. https://www.fao.org/faoterm/en/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2245,6 +2225,101 @@
   </si>
   <si>
     <t>hot water dip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treatment with a chemical agent that reaches the commodity wholly or primarily in a gaseous state.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FAO, 1990; revised FAO, 1995] https://www.fao.org/faoterm/en/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preserve (meat, fish, tobacco, or an animal skin) by salting, drying, or smoking.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxford English Dictionary, consulted in 2022 (https://www.lexico.com/definition/cure). https://www.fao.org/faoterm/en/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks: Curing involves the techniques of drying, dry salting/brining (soaking in salt solution) or smoking. These may be used alone or in various combinations to produce a range of products with a long shelf-life.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small-scale food processing, A guide for appropriate equipment, CTA, 1992 (http://www.fao.org/Wairdocs/X5434E/x5434e0f.htm). https://www.fao.org/faoterm/en/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat removal from produce packed in shipping containers by drawing a vacuum in a chamber.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The use of rapid movement of refrigerated air over fresh fruits and vegetables in cold rooms.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>強制通風冷卻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forced-air cooling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINORM 03/13, Report of the Session of the Codex Committee on Food Hygiene, Joint FAO/WHO Food Standards Programme, Codex Alimentarius Commission, FAO/WHO, 2003. https://www.fao.org/faoterm/en/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>context: Hydrocooling essentially is the utilization of chilled or cold water for lowering the temperature of a product in bulk or smaller containers before further packing. Hydrocooling is achieved by flooding, spraying, or immersing the product in/with chilled water. There are several different hydrocooler designs in operation commercially. Hydrocooling methods differ in their cooling rates and overall process efficiencies. Differences between the individual techniques are evident by the method of cooling and by the way that produce is moved or placed in the cooler. Various types of hydrocooler are available, some of which include conventional (flood) type, immersion type, and batch type.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Farmers Agribusiness Consortium (SFAC). (2022, May 24). Draft post-harvest management standard operating procedures for fruits and vegetables. Retrieved from https://sfacindia.com/UploadFile/Statistics/Draft-PHM-SOP-Fruits-and-Vegetables-24-May-2022.pdf</t>
+  </si>
+  <si>
+    <t>context: Rapid cooling of horticultural produce can be carried out with vacuum cooling. Vacuum cooling is achieved by the evaporation of moisture from the produce. The evaporation is encouraged and made more efficient by reducing the pressure to the point where boiling of water takes place at a low temperature.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>context: In ice cooling, crushed or fine granular ice is used to cool the produce. The ice is either packed around produce in cartons or sacks, or it is made into a slurry with water and injected into waxed cartons packed with produce. The ice then fills the voids around the produce.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context: A permanent false wall or air plenum contains an exhaust fan that draws air from the room and directs it over the cooling surface. The wall is at the same end of the cold room as the cooling 17 surface. The wall is built with a damper system that only opens when containers with openings are placed in front of it. The fan pulls cold room air through the container and contents, cooling the produce.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">context: Most of the fruits and underground vegetables like beetroot, radish, carrot, ginger etc. when harvested are with soil/mud/latex/pesticides/dried/pest infested/diseases and look dirty. Cleaning and washing makes them marketable. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Cooling?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washing?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>園產品在採收之後、進行分等或包裝之前,將不必要的外葉、莖部或根部除去的動作.修整可使產品的外觀看起來整齊美觀,也可減少污染.通常是對蔬菜類、花卉類產品所做的工作.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>context: Removal, trimming and cutting of all undesirable leaves/ stem/ stalks/ roots/other non-edible or unmarketable parts is called dressing. Dressing makes vegetables attractive and marketable.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2361,7 +2436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2382,6 +2457,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2698,11 +2776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75DF2BB-308B-47F1-AAA9-930CDEC8A12F}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2777,13 +2855,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2791,7 +2869,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2799,13 +2877,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2813,7 +2891,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2855,7 +2933,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2863,7 +2941,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2871,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2930,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -3014,7 +3092,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
@@ -3042,7 +3120,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -3095,7 +3173,7 @@
         <v>293</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>60</v>
@@ -3153,7 +3231,7 @@
         <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>69</v>
@@ -3179,13 +3257,13 @@
         <v>387</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3193,7 +3271,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3204,7 +3282,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>73</v>
@@ -3324,7 +3402,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>99</v>
@@ -3352,10 +3430,10 @@
         <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3363,129 +3441,129 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>480</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>481</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>482</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
+        <v>153</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>481</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>116</v>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="J27" s="2" t="s">
-        <v>530</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3493,21 +3571,21 @@
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3519,108 +3597,106 @@
         <v>101</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>128</v>
+        <v>530</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
-        <v>131</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>744</v>
+        <v>657</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>533</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>534</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>137</v>
@@ -3629,111 +3705,103 @@
         <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="2" t="s">
-        <v>149</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>508</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>839</v>
+        <v>738</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>839</v>
+        <v>738</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3741,26 +3809,26 @@
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>865</v>
+        <v>739</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>507</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>153</v>
@@ -3769,353 +3837,357 @@
         <v>101</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>903</v>
+        <v>839</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>987</v>
+        <v>839</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>175</v>
+        <v>534</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="2" t="s">
-        <v>176</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1085</v>
+        <v>865</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1152</v>
+        <v>903</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1203</v>
+        <v>987</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1255</v>
+        <v>1085</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1255</v>
+        <v>1152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="J46" s="2" t="s">
-        <v>538</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1255</v>
+        <v>1203</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>491</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>539</v>
+        <v>190</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="J47" s="2" t="s">
-        <v>538</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1435</v>
+        <v>1255</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1435</v>
+        <v>1255</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>204</v>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1436</v>
+        <v>1255</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>538</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="2" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="I51" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>204</v>
+        <v>101</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>542</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="J52" s="4" t="s">
-        <v>543</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4126,48 +4198,50 @@
         <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>544</v>
+        <v>509</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4" t="s">
-        <v>545</v>
+      <c r="F53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>509</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4180,963 +4254,963 @@
       <c r="C55" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>215</v>
+      <c r="D55" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I55" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>204</v>
+        <v>101</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>546</v>
+        <v>217</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>591</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="2" t="s">
-        <v>547</v>
+      <c r="J58" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
+        <v>1456</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1468</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>1469</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J60" s="2" t="s">
+    </row>
+    <row r="63" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1495</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>1495</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H61" s="2" t="s">
+    </row>
+    <row r="64" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>1497</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>1497</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="I64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>1543</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1586</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>1613</v>
+        <v>1543</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I65" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>1614</v>
+        <v>1586</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>1673</v>
+        <v>1613</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>1720</v>
+        <v>1614</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>1733</v>
+        <v>1673</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>549</v>
+        <v>272</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J70" s="2" t="s">
-        <v>548</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3" t="s">
-        <v>283</v>
+      <c r="G71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>1761</v>
+        <v>1733</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>286</v>
+        <v>544</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>287</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="H73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J73" s="2" t="s">
-        <v>548</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>1812</v>
+        <v>1761</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>1813</v>
+        <v>1761</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>294</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>296</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1874</v>
+        <v>1812</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="H76" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>1892</v>
+        <v>1813</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>1924</v>
+        <v>1874</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>1968</v>
+        <v>1892</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>317</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1977</v>
+        <v>1924</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="H80" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J81" s="2" t="s">
-        <v>552</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>2033</v>
+        <v>1977</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>511</v>
+        <v>321</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>2071</v>
+        <v>1977</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>334</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>2103</v>
+        <v>2033</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>494</v>
+        <v>326</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>335</v>
+        <v>510</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>2103</v>
+        <v>2071</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>553</v>
+        <v>331</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J85" s="2" t="s">
-        <v>554</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>340</v>
+        <v>493</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>2114</v>
+        <v>2103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>349</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J88" s="2" t="s">
-        <v>556</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>352</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>153</v>
@@ -5145,21 +5219,21 @@
         <v>101</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -5167,49 +5241,51 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>2188</v>
+        <v>2121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>562</v>
+        <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="G91" s="2" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>2188</v>
+        <v>2121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>562</v>
+        <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5217,180 +5293,168 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>359</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>367</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>2255</v>
+        <v>2189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>2259</v>
+        <v>2190</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="I96" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>495</v>
+        <v>367</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>376</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>2270</v>
+        <v>2259</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>380</v>
+        <v>224</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F98" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="G98" s="2" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>153</v>
@@ -5399,709 +5463,929 @@
         <v>101</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>2025102901</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="A99" s="2">
+        <v>2260</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>386</v>
+        <v>137</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>2316</v>
+        <v>2270</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>2343</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>394</v>
+      <c r="A101" s="4">
+        <v>2025102901</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>396</v>
+      <c r="I101" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>2353</v>
+        <v>2316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>398</v>
+        <v>558</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G102" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="H102" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="G103" s="2" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>2361</v>
+        <v>2353</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
-        <v>411</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>2473</v>
+        <v>2355</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>415</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>91</v>
+        <v>277</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>2529</v>
+        <v>2361</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>2540</v>
+        <v>2473</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="G107" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>338</v>
+        <v>416</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>2563</v>
+        <v>2529</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>503</v>
+        <v>418</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>2581</v>
+        <v>2540</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="F109" s="2"/>
-      <c r="G109" s="3" t="s">
-        <v>49</v>
+      <c r="G109" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>21</v>
+        <v>337</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>2711</v>
+        <v>2563</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>438</v>
+        <v>502</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="F110" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>439</v>
+      <c r="J110" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>2725</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>440</v>
+        <v>2581</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="3" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>338</v>
+        <v>21</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>443</v>
+      <c r="J111" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>2790</v>
+        <v>2711</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F112" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="G112" s="3" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>447</v>
+      <c r="J112" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>2956</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>498</v>
+        <v>2725</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>452</v>
+      <c r="J113" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>2913</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>453</v>
+        <v>2725</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>456</v>
+        <v>440</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>457</v>
+      <c r="F114" s="2"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>2917</v>
+        <v>2790</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>242</v>
+        <v>445</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>2920</v>
+        <v>2790</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E116" s="3"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>466</v>
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>2921</v>
+        <v>2790</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>473</v>
+        <v>443</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>2025102902</v>
+        <v>2956</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="H118" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>476</v>
+        <v>101</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>2025102903</v>
+        <v>2913</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>480</v>
+        <v>101</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>2025102904</v>
+        <v>2917</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="H120" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>484</v>
+        <v>101</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>2025102905</v>
+        <v>2920</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="H121" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>488</v>
+        <v>101</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
+        <v>2921</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>2025102902</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>2025102903</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>2025110401</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J125" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>2025102905</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>2025102905</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>2025102905</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>2025102906</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>491</v>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>2025110402</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>2025110403</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>2025110404</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J118" r:id="rId1" xr:uid="{72C38039-FF65-433C-B9A0-D94D283C63B6}"/>
-    <hyperlink ref="J119" r:id="rId2" xr:uid="{EE12943A-E081-4014-9B2E-7614FE094739}"/>
-    <hyperlink ref="J120" r:id="rId3" xr:uid="{38F57F5C-CB15-4BAB-BC1B-A6112602E513}"/>
-    <hyperlink ref="J121" r:id="rId4" xr:uid="{AD69ABDA-8ACB-4C35-BE19-434009592D4E}"/>
-    <hyperlink ref="J122" r:id="rId5" xr:uid="{B96929E0-AB3B-4F7B-B265-5FBE43C0397A}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{A825ABBA-990F-4061-B640-6D934E0D3D9F}"/>
-    <hyperlink ref="J6" r:id="rId7" xr:uid="{94C5C051-CCE6-4292-B799-870C669D5D4E}"/>
+    <hyperlink ref="J123" r:id="rId1" xr:uid="{72C38039-FF65-433C-B9A0-D94D283C63B6}"/>
+    <hyperlink ref="J124" r:id="rId2" xr:uid="{EE12943A-E081-4014-9B2E-7614FE094739}"/>
+    <hyperlink ref="J25" r:id="rId3" xr:uid="{38F57F5C-CB15-4BAB-BC1B-A6112602E513}"/>
+    <hyperlink ref="J126" r:id="rId4" xr:uid="{AD69ABDA-8ACB-4C35-BE19-434009592D4E}"/>
+    <hyperlink ref="J3" r:id="rId5" xr:uid="{A825ABBA-990F-4061-B640-6D934E0D3D9F}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{94C5C051-CCE6-4292-B799-870C669D5D4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>